--- a/Personal-Project/JS-Frameworks-Self-Evaluation-Protocol-RosenKrumov.xlsx
+++ b/Personal-Project/JS-Frameworks-Self-Evaluation-Protocol-RosenKrumov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosen\Documents\GitHub\SPA-Personal-Project.git\trunk\Personal-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -658,7 +658,7 @@
   <dimension ref="B2:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>18</v>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>18</v>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C44" s="11">
         <f>SUM(C6:C43)</f>
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D44" s="11">
         <v>370</v>
